--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="325">
   <si>
     <t>2023年番剧推荐汇总</t>
   </si>
@@ -90,34 +90,52 @@
     <t>不死少女 杀人笑剧</t>
   </si>
   <si>
+    <t>地下忍者</t>
+  </si>
+  <si>
     <t>天国大魔境</t>
   </si>
   <si>
     <t>七魔剑支配天下</t>
   </si>
   <si>
+    <t>哥布林杀手第二季</t>
+  </si>
+  <si>
     <t>地狱乐</t>
   </si>
   <si>
     <t>AI电子基因</t>
   </si>
   <si>
+    <t>猪肝记得煮熟再吃</t>
+  </si>
+  <si>
     <t>我心里危险的东西</t>
   </si>
   <si>
     <t>Liar・Liar 谎言游戏</t>
   </si>
   <si>
+    <t>间谍过家家第二季</t>
+  </si>
+  <si>
     <t>我家的英雄</t>
   </si>
   <si>
     <t>庙不可言</t>
   </si>
   <si>
+    <t>药屋少女的呢喃</t>
+  </si>
+  <si>
     <t>鬼灭之刃Ⅲ</t>
   </si>
   <si>
     <t>无职转生Ⅱ到了异世界就拿出真本事</t>
+  </si>
+  <si>
+    <t>石纪元第二季</t>
   </si>
   <si>
     <t>僵尸百分百 变成僵尸前想做的100件事</t>
@@ -1986,12 +2004,12 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.6296296296296" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="40.6296296296296" customWidth="1"/>
+    <col min="1" max="16384" width="40.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1" spans="1:5">
@@ -2020,7 +2038,7 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D145)-(2023-2006+1)*5</f>
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -2081,77 +2099,95 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:3">
+    <row r="8" customHeight="1" spans="2:4">
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:3">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:3">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:3">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:3">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:3">
       <c r="C15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
       <c r="C17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="70" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2173,89 +2209,89 @@
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="4:4">
       <c r="D26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="4:4">
       <c r="D27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="70" customHeight="1" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2277,132 +2313,132 @@
     </row>
     <row r="30" customHeight="1" spans="1:4">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="70" customHeight="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2424,67 +2460,67 @@
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:2">
       <c r="B47" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" ht="70" customHeight="1" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2506,65 +2542,65 @@
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:4">
       <c r="B52" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:4">
       <c r="B53" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:4">
       <c r="B54" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2586,88 +2622,88 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:4">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:4">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:4">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2689,70 +2725,70 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:3">
       <c r="B69" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:3">
       <c r="C70" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" ht="70" customHeight="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2774,70 +2810,70 @@
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" ht="70" customHeight="1" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2859,100 +2895,100 @@
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:4">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:4">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:2">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:2">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:2">
       <c r="B88" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:2">
       <c r="B89" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" ht="70" customHeight="1" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2974,107 +3010,107 @@
     </row>
     <row r="92" customHeight="1" spans="1:4">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:4">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:4">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D94" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="2:4">
       <c r="B95" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="2:4">
       <c r="B96" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="4:4">
       <c r="D100" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="4:4">
       <c r="D101" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="4:4">
       <c r="D102" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" ht="70" customHeight="1" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3096,86 +3132,86 @@
     </row>
     <row r="105" customHeight="1" spans="1:4">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:4">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:4">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D107" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="2:4">
       <c r="B108" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D108" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="2:4">
       <c r="B109" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D109" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:4">
       <c r="B110" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" ht="70" customHeight="1" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3197,78 +3233,78 @@
     </row>
     <row r="115" customHeight="1" spans="1:4">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D115" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:4">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C116" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:4">
       <c r="A117" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D117" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:4">
       <c r="A118" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:4">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:2">
       <c r="B120" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:2">
       <c r="B121" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" ht="70" customHeight="1" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3290,50 +3326,50 @@
     </row>
     <row r="124" customHeight="1" spans="1:4">
       <c r="A124" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:4">
       <c r="A125" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B125" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D125" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="4:4">
       <c r="D126" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="4:4">
       <c r="D127" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="4:4">
       <c r="D128" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" ht="70" customHeight="1" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3355,29 +3391,29 @@
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C131" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D131" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="3:4">
       <c r="C132" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" ht="70" customHeight="1" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3399,21 +3435,21 @@
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C135" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D135" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" ht="70" customHeight="1" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3435,21 +3471,21 @@
     </row>
     <row r="138" customHeight="1" spans="1:4">
       <c r="A138" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B138" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C138" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D138" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" ht="70" customHeight="1" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3471,18 +3507,18 @@
     </row>
     <row r="141" customHeight="1" spans="2:4">
       <c r="B141" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D141" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" ht="70" customHeight="1" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3504,18 +3540,18 @@
     </row>
     <row r="144" customHeight="1" spans="2:4">
       <c r="B144" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C144" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D144" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3590,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3571,7 +3607,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,38 +4,57 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25605" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="326">
+  <si>
+    <t>2024年番剧推荐汇总</t>
+  </si>
+  <si>
+    <t>番剧总数</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>迷宫饭</t>
+  </si>
   <si>
     <t>2023年番剧推荐汇总</t>
   </si>
   <si>
-    <t>番剧总数</t>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
     <t>网购技能开启异世界美食之旅</t>
   </si>
   <si>
@@ -108,7 +127,7 @@
     <t>AI电子基因</t>
   </si>
   <si>
-    <t>猪肝记得煮熟再吃</t>
+    <t>间谍过家家第二季</t>
   </si>
   <si>
     <t>我心里危险的东西</t>
@@ -117,7 +136,7 @@
     <t>Liar・Liar 谎言游戏</t>
   </si>
   <si>
-    <t>间谍过家家第二季</t>
+    <t>药屋少女的呢喃</t>
   </si>
   <si>
     <t>我家的英雄</t>
@@ -126,16 +145,13 @@
     <t>庙不可言</t>
   </si>
   <si>
-    <t>药屋少女的呢喃</t>
+    <t>石纪元第二季</t>
   </si>
   <si>
     <t>鬼灭之刃Ⅲ</t>
   </si>
   <si>
     <t>无职转生Ⅱ到了异世界就拿出真本事</t>
-  </si>
-  <si>
-    <t>石纪元第二季</t>
   </si>
   <si>
     <t>僵尸百分百 变成僵尸前想做的100件事</t>
@@ -996,7 +1012,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2001,10 +2017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2037,570 +2053,434 @@
         <v>5</v>
       </c>
       <c r="E2" s="4">
-        <f>COUNTA(A1:D145)-(2023-2006+1)*5</f>
+        <f>COUNTA(A1:D160)-(2024-2006+1)*5</f>
         <v>307</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" customHeight="1" spans="1:1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="16" ht="70" customHeight="1" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:4">
-      <c r="B4" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:4">
-      <c r="B5" t="s">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="2:4">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="2:4">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" t="s">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D23" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:3">
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:3">
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:3">
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" ht="70" customHeight="1" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="4:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="4:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" ht="70" customHeight="1" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:3">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" ht="70" customHeight="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" ht="70" customHeight="1" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="4:4">
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="4:4">
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" ht="70" customHeight="1" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" t="s">
         <v>2</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:3">
-      <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:2">
+    <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:2">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
       <c r="B47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" ht="70" customHeight="1" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:4">
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2622,88 +2502,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2725,855 +2584,1039 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:3">
-      <c r="C70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" ht="70" customHeight="1" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="D69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" ht="70" customHeight="1" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:3">
+        <v>151</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:2">
-      <c r="A77" t="s">
-        <v>191</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:4">
       <c r="B77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:2">
-      <c r="A78" t="s">
-        <v>193</v>
-      </c>
-      <c r="B78" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" ht="70" customHeight="1" spans="1:4">
-      <c r="A79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" ht="70" customHeight="1" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:4">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" customHeight="1" spans="1:4">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:4">
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:4">
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:3">
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:3">
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" ht="70" customHeight="1" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:4">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:4">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:3">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:3">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:3">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:2">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:2">
+      <c r="A93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" ht="70" customHeight="1" spans="1:4">
+      <c r="A94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:4">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:4">
+      <c r="A96" t="s">
         <v>197</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B96" t="s">
         <v>198</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C96" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:4">
-      <c r="A82" t="s">
+      <c r="D96" t="s">
         <v>200</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="97" customHeight="1" spans="1:4">
+      <c r="A97" t="s">
         <v>201</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B97" t="s">
         <v>202</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:4">
-      <c r="A83" t="s">
+      <c r="D97" t="s">
         <v>204</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="98" customHeight="1" spans="1:4">
+      <c r="A98" t="s">
         <v>205</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B98" t="s">
         <v>206</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C98" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:4">
-      <c r="A84" t="s">
+      <c r="D98" t="s">
         <v>208</v>
       </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="99" customHeight="1" spans="1:4">
+      <c r="A99" t="s">
         <v>209</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B99" t="s">
         <v>210</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C99" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:3">
-      <c r="A85" t="s">
+      <c r="D99" t="s">
         <v>212</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="100" customHeight="1" spans="1:3">
+      <c r="A100" t="s">
         <v>213</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B100" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:2">
-      <c r="A86" t="s">
+      <c r="C100" t="s">
         <v>215</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="101" customHeight="1" spans="1:2">
+      <c r="A101" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B101" t="s">
         <v>217</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="102" customHeight="1" spans="1:2">
+      <c r="A102" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="88" customHeight="1" spans="2:2">
-      <c r="B88" t="s">
+      <c r="B102" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="2:2">
-      <c r="B89" t="s">
+    <row r="103" customHeight="1" spans="2:2">
+      <c r="B103" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" ht="70" customHeight="1" spans="1:4">
-      <c r="A90" s="1" t="s">
+    <row r="104" customHeight="1" spans="2:2">
+      <c r="B104" t="s">
         <v>221</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:4">
-      <c r="A91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:4">
-      <c r="A92" t="s">
+    </row>
+    <row r="105" ht="70" customHeight="1" spans="1:4">
+      <c r="A105" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B92" t="s">
-        <v>223</v>
-      </c>
-      <c r="C92" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:4">
-      <c r="A93" t="s">
-        <v>226</v>
-      </c>
-      <c r="B93" t="s">
-        <v>227</v>
-      </c>
-      <c r="C93" t="s">
-        <v>228</v>
-      </c>
-      <c r="D93" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:4">
-      <c r="A94" t="s">
-        <v>230</v>
-      </c>
-      <c r="B94" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="2:4">
-      <c r="B95" t="s">
-        <v>234</v>
-      </c>
-      <c r="C95" t="s">
-        <v>235</v>
-      </c>
-      <c r="D95" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="2:4">
-      <c r="B96" t="s">
-        <v>237</v>
-      </c>
-      <c r="D96" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="2:4">
-      <c r="B97" t="s">
-        <v>239</v>
-      </c>
-      <c r="D97" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="2:4">
-      <c r="B98" t="s">
-        <v>241</v>
-      </c>
-      <c r="D98" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="2:4">
-      <c r="B99" t="s">
-        <v>243</v>
-      </c>
-      <c r="D99" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="4:4">
-      <c r="D100" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="4:4">
-      <c r="D101" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="4:4">
-      <c r="D102" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" ht="70" customHeight="1" spans="1:4">
-      <c r="A103" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:4">
-      <c r="A104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:4">
-      <c r="A105" t="s">
-        <v>249</v>
-      </c>
-      <c r="B105" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" t="s">
-        <v>251</v>
-      </c>
-      <c r="D105" t="s">
-        <v>252</v>
-      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" customHeight="1" spans="1:4">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:4">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>225</v>
       </c>
       <c r="D107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="2:4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:4">
+      <c r="A108" t="s">
+        <v>227</v>
+      </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>228</v>
+      </c>
+      <c r="C108" t="s">
+        <v>229</v>
       </c>
       <c r="D108" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="2:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:4">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:4">
       <c r="B110" t="s">
-        <v>264</v>
+        <v>235</v>
+      </c>
+      <c r="C110" t="s">
+        <v>236</v>
       </c>
       <c r="D110" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D111" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="D112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" ht="70" customHeight="1" spans="1:4">
-      <c r="A113" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:4">
-      <c r="A114" t="s">
-        <v>2</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:4">
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:4">
-      <c r="A115" t="s">
-        <v>271</v>
-      </c>
-      <c r="B115" t="s">
-        <v>272</v>
-      </c>
-      <c r="C115" t="s">
-        <v>273</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="4:4">
       <c r="D115" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:4">
-      <c r="A116" t="s">
-        <v>275</v>
-      </c>
-      <c r="B116" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" t="s">
-        <v>277</v>
-      </c>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:4">
-      <c r="A117" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" t="s">
-        <v>263</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:4">
-      <c r="A118" t="s">
-        <v>281</v>
-      </c>
-      <c r="B118" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" t="s">
-        <v>283</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" ht="70" customHeight="1" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" customHeight="1" spans="1:4">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="2:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:4">
+      <c r="A120" t="s">
+        <v>250</v>
+      </c>
       <c r="B120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="2:2">
+        <v>251</v>
+      </c>
+      <c r="C120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:4">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
       <c r="B121" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" ht="70" customHeight="1" spans="1:4">
-      <c r="A122" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:4">
-      <c r="A123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:4">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="2:4">
+      <c r="B123" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="2:4">
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="2:4">
+      <c r="B125" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="2:4">
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="2:4">
+      <c r="B127" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" ht="70" customHeight="1" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:4">
+      <c r="A129" t="s">
         <v>2</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B129" t="s">
         <v>3</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C129" t="s">
         <v>4</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:4">
-      <c r="A124" t="s">
-        <v>288</v>
-      </c>
-      <c r="B124" t="s">
-        <v>290</v>
-      </c>
-      <c r="C124" t="s">
-        <v>291</v>
-      </c>
-      <c r="D124" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:4">
-      <c r="A125" t="s">
-        <v>293</v>
-      </c>
-      <c r="B125" t="s">
-        <v>294</v>
-      </c>
-      <c r="C125" t="s">
-        <v>295</v>
-      </c>
-      <c r="D125" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="4:4">
-      <c r="D126" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="4:4">
-      <c r="D127" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="4:4">
-      <c r="D128" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="129" ht="70" customHeight="1" spans="1:4">
-      <c r="A129" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
     </row>
     <row r="130" customHeight="1" spans="1:4">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D131" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="3:4">
-      <c r="C132" t="s">
-        <v>305</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" t="s">
+        <v>264</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" ht="70" customHeight="1" spans="1:4">
-      <c r="A133" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:4">
+      <c r="A133" t="s">
+        <v>282</v>
+      </c>
+      <c r="B133" t="s">
+        <v>283</v>
+      </c>
+      <c r="D133" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:4">
-      <c r="A135" t="s">
-        <v>308</v>
-      </c>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:2">
       <c r="B135" t="s">
-        <v>309</v>
-      </c>
-      <c r="C135" t="s">
-        <v>310</v>
-      </c>
-      <c r="D135" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="136" ht="70" customHeight="1" spans="1:4">
-      <c r="A136" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:4">
-      <c r="A137" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>5</v>
-      </c>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="2:2">
+      <c r="B136" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" ht="70" customHeight="1" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" customHeight="1" spans="1:4">
       <c r="A138" t="s">
-        <v>312</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>313</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="139" ht="70" customHeight="1" spans="1:4">
-      <c r="A139" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:4">
+      <c r="A139" t="s">
+        <v>289</v>
+      </c>
+      <c r="B139" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" t="s">
+        <v>292</v>
+      </c>
+      <c r="D139" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" t="s">
+        <v>296</v>
+      </c>
+      <c r="D140" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="4:4">
+      <c r="D141" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="4:4">
+      <c r="D142" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="4:4">
+      <c r="D143" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" ht="70" customHeight="1" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:4">
+      <c r="A145" t="s">
         <v>2</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B145" t="s">
         <v>3</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C145" t="s">
         <v>4</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="2:4">
-      <c r="B141" t="s">
+    <row r="146" customHeight="1" spans="1:4">
+      <c r="A146" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" t="s">
+        <v>303</v>
+      </c>
+      <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="3:4">
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" ht="70" customHeight="1" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:4">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:4">
+      <c r="A150" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" t="s">
+        <v>310</v>
+      </c>
+      <c r="C150" t="s">
+        <v>311</v>
+      </c>
+      <c r="D150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" ht="70" customHeight="1" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:4">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:4">
+      <c r="A153" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" t="s">
+        <v>315</v>
+      </c>
+      <c r="D153" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" ht="70" customHeight="1" spans="1:4">
+      <c r="A154" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:4">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="2:4">
+      <c r="B156" t="s">
         <v>318</v>
       </c>
-      <c r="D141" t="s">
+      <c r="C156" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="142" ht="70" customHeight="1" spans="1:4">
-      <c r="A142" s="1" t="s">
+      <c r="D156" t="s">
         <v>320</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:4">
-      <c r="A143" t="s">
+    </row>
+    <row r="157" ht="70" customHeight="1" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:4">
+      <c r="A158" t="s">
         <v>2</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B158" t="s">
         <v>3</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C158" t="s">
         <v>4</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="2:4">
-      <c r="B144" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" t="s">
+    <row r="159" customHeight="1" spans="2:4">
+      <c r="B159" t="s">
         <v>322</v>
       </c>
-      <c r="D144" t="s">
+      <c r="C159" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="145" customHeight="1" spans="2:2">
-      <c r="B145" t="s">
+      <c r="D159" t="s">
         <v>324</v>
       </c>
     </row>
+    <row r="160" customHeight="1" spans="2:2">
+      <c r="B160" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A157:D157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="15840"/>
+    <workbookView windowWidth="12795" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="330">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>迷宫饭</t>
+  </si>
+  <si>
+    <t>大欺诈师2</t>
+  </si>
+  <si>
+    <t>我心里危险的东西2</t>
+  </si>
+  <si>
+    <t>欢迎来到实力至上主义的教室3</t>
+  </si>
+  <si>
+    <t>弱势角色友崎君 2</t>
   </si>
   <si>
     <t>2023年番剧推荐汇总</t>
@@ -2020,7 +2032,7 @@
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2054,7 +2066,7 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D160)-(2024-2006+1)*5</f>
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
@@ -2062,9 +2074,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2088,148 +2120,148 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:3">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2251,89 +2283,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2355,132 +2387,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>93</v>
       </c>
-      <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2502,67 +2534,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2584,65 +2616,65 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" ht="70" customHeight="1" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2664,88 +2696,88 @@
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" ht="70" customHeight="1" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2767,70 +2799,70 @@
     </row>
     <row r="80" customHeight="1" spans="1:4">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:3">
       <c r="B84" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:3">
       <c r="C85" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" ht="70" customHeight="1" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2852,70 +2884,70 @@
     </row>
     <row r="88" customHeight="1" spans="1:4">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" ht="70" customHeight="1" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2937,100 +2969,100 @@
     </row>
     <row r="96" customHeight="1" spans="1:4">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:3">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:2">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="2:2">
       <c r="B103" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" ht="70" customHeight="1" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3052,107 +3084,107 @@
     </row>
     <row r="107" customHeight="1" spans="1:4">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B107" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B108" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B109" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D109" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:4">
       <c r="B110" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="4:4">
       <c r="D115" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" ht="70" customHeight="1" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3174,86 +3206,86 @@
     </row>
     <row r="120" customHeight="1" spans="1:4">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D120" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D122" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:4">
       <c r="B123" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D125" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D126" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" ht="70" customHeight="1" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3275,78 +3307,78 @@
     </row>
     <row r="130" customHeight="1" spans="1:4">
       <c r="A130" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C130" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D132" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D133" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="2:2">
       <c r="B135" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" ht="70" customHeight="1" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3368,50 +3400,50 @@
     </row>
     <row r="139" customHeight="1" spans="1:4">
       <c r="A139" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C139" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D139" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D140" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="4:4">
       <c r="D141" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
       <c r="D143" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" ht="70" customHeight="1" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3433,29 +3465,29 @@
     </row>
     <row r="146" customHeight="1" spans="1:4">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C146" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="3:4">
       <c r="C147" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D147" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" ht="70" customHeight="1" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3477,21 +3509,21 @@
     </row>
     <row r="150" customHeight="1" spans="1:4">
       <c r="A150" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B150" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D150" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" ht="70" customHeight="1" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3513,21 +3545,21 @@
     </row>
     <row r="153" customHeight="1" spans="1:4">
       <c r="A153" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B153" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D153" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" ht="70" customHeight="1" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3549,18 +3581,18 @@
     </row>
     <row r="156" customHeight="1" spans="2:4">
       <c r="B156" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D156" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" ht="70" customHeight="1" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3582,18 +3614,18 @@
     </row>
     <row r="159" customHeight="1" spans="2:4">
       <c r="B159" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D159" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="2:2">
       <c r="B160" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12795" windowHeight="17655"/>
+    <workbookView windowWidth="19200" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="331">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>弱势角色友崎君 2</t>
+  </si>
+  <si>
+    <t>愚蠢天使与恶魔共舞</t>
   </si>
   <si>
     <t>2023年番剧推荐汇总</t>
@@ -2031,8 +2034,8 @@
   <sheetPr/>
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2066,7 +2069,7 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D160)-(2024-2006+1)*5</f>
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
@@ -2094,9 +2097,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2120,148 +2128,148 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:3">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2283,89 +2291,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2387,132 +2395,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2534,67 +2542,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2616,65 +2624,65 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" ht="70" customHeight="1" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2696,88 +2704,88 @@
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" ht="70" customHeight="1" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2799,70 +2807,70 @@
     </row>
     <row r="80" customHeight="1" spans="1:4">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:3">
       <c r="B84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:3">
       <c r="C85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" ht="70" customHeight="1" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2884,70 +2892,70 @@
     </row>
     <row r="88" customHeight="1" spans="1:4">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
       <c r="A92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" ht="70" customHeight="1" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2969,100 +2977,100 @@
     </row>
     <row r="96" customHeight="1" spans="1:4">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:3">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:2">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="2:2">
       <c r="B103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" ht="70" customHeight="1" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3084,107 +3092,107 @@
     </row>
     <row r="107" customHeight="1" spans="1:4">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:4">
       <c r="B110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="4:4">
       <c r="D115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" ht="70" customHeight="1" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3206,86 +3214,86 @@
     </row>
     <row r="120" customHeight="1" spans="1:4">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:4">
       <c r="B123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" ht="70" customHeight="1" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3307,78 +3315,78 @@
     </row>
     <row r="130" customHeight="1" spans="1:4">
       <c r="A130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="2:2">
       <c r="B135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" ht="70" customHeight="1" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3400,50 +3408,50 @@
     </row>
     <row r="139" customHeight="1" spans="1:4">
       <c r="A139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C140" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="4:4">
       <c r="D141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
       <c r="D143" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" ht="70" customHeight="1" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3465,29 +3473,29 @@
     </row>
     <row r="146" customHeight="1" spans="1:4">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D146" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="3:4">
       <c r="C147" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" ht="70" customHeight="1" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3509,21 +3517,21 @@
     </row>
     <row r="150" customHeight="1" spans="1:4">
       <c r="A150" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" ht="70" customHeight="1" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3545,21 +3553,21 @@
     </row>
     <row r="153" customHeight="1" spans="1:4">
       <c r="A153" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C153" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D153" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" ht="70" customHeight="1" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3581,18 +3589,18 @@
     </row>
     <row r="156" customHeight="1" spans="2:4">
       <c r="B156" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" ht="70" customHeight="1" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3614,18 +3622,18 @@
     </row>
     <row r="159" customHeight="1" spans="2:4">
       <c r="B159" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D159" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="2:2">
       <c r="B160" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="339">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -52,21 +52,36 @@
     <t>迷宫饭</t>
   </si>
   <si>
-    <t>大欺诈师2</t>
-  </si>
-  <si>
-    <t>我心里危险的东西2</t>
-  </si>
-  <si>
-    <t>欢迎来到实力至上主义的教室3</t>
-  </si>
-  <si>
-    <t>弱势角色友崎君 2</t>
+    <t>公主大人 “拷问”时间到了</t>
+  </si>
+  <si>
+    <t>我心里危险的东西Ⅱ</t>
+  </si>
+  <si>
+    <t>欢迎来到实力至上主义的教室Ⅲ</t>
+  </si>
+  <si>
+    <t>弱势角色友崎君Ⅱ</t>
   </si>
   <si>
     <t>愚蠢天使与恶魔共舞</t>
   </si>
   <si>
+    <t>北海道辣妹贼拉可爱</t>
+  </si>
+  <si>
+    <t>异修罗</t>
+  </si>
+  <si>
+    <t>梦想成为魔法少女</t>
+  </si>
+  <si>
+    <t>佐佐木与文鸟小哔</t>
+  </si>
+  <si>
+    <t>物理魔法使马修Ⅱ</t>
+  </si>
+  <si>
     <t>2023年番剧推荐汇总</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t>无职转生Ⅱ到了异世界就拿出真本事</t>
   </si>
   <si>
+    <t>物理魔法使马修</t>
+  </si>
+  <si>
     <t>僵尸百分百 变成僵尸前想做的100件事</t>
   </si>
   <si>
@@ -454,7 +472,13 @@
     <t>贤者之孙</t>
   </si>
   <si>
+    <t>冰海战记</t>
+  </si>
+  <si>
     <t>慎重勇者 这个勇者明明超强却过分慎重</t>
+  </si>
+  <si>
+    <t>旗扬！兽道</t>
   </si>
   <si>
     <t>2018年番剧推荐汇总</t>
@@ -2032,10 +2056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2068,8 +2092,8 @@
         <v>5</v>
       </c>
       <c r="E2" s="4">
-        <f>COUNTA(A1:D160)-(2024-2006+1)*5</f>
-        <v>312</v>
+        <f>COUNTA(A1:D161)-(2024-2006+1)*5</f>
+        <v>320</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
@@ -2102,9 +2126,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2128,148 +2177,151 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:4">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2291,89 +2343,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2395,132 +2447,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2542,67 +2594,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2624,1016 +2676,1024 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" ht="70" customHeight="1" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" ht="70" customHeight="1" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" ht="70" customHeight="1" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:4">
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" ht="70" customHeight="1" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" customHeight="1" spans="1:4">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="2:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="2:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:4">
       <c r="B84" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:3">
+        <v>186</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:3">
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
       <c r="C85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" ht="70" customHeight="1" spans="1:4">
-      <c r="A86" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:4">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:3">
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" ht="70" customHeight="1" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" customHeight="1" spans="1:4">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:4">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" ht="70" customHeight="1" spans="1:4">
-      <c r="A94" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:4">
-      <c r="A95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:2">
+      <c r="A94" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" ht="70" customHeight="1" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" customHeight="1" spans="1:4">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D99" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:4">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:2">
+        <v>224</v>
+      </c>
+      <c r="D100" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:3">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>227</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="2:2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:2">
+      <c r="A103" t="s">
+        <v>231</v>
+      </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" ht="70" customHeight="1" spans="1:4">
-      <c r="A105" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:4">
-      <c r="A106" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" t="s">
-        <v>5</v>
-      </c>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="2:2">
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" ht="70" customHeight="1" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" customHeight="1" spans="1:4">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="2:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:4">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D110" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="C111" t="s">
+        <v>249</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="4:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="2:4">
+      <c r="B115" t="s">
+        <v>257</v>
+      </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" ht="70" customHeight="1" spans="1:4">
-      <c r="A118" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:4">
-      <c r="A119" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="4:4">
+      <c r="D118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" ht="70" customHeight="1" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" customHeight="1" spans="1:4">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D121" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="C122" t="s">
+        <v>269</v>
       </c>
       <c r="D122" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="2:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:4">
+      <c r="A123" t="s">
+        <v>271</v>
+      </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D124" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D125" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D126" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" ht="70" customHeight="1" spans="1:4">
-      <c r="A128" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:4">
-      <c r="A129" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="2:4">
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" ht="70" customHeight="1" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" customHeight="1" spans="1:4">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C131" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>290</v>
+      </c>
+      <c r="C132" t="s">
+        <v>291</v>
       </c>
       <c r="D132" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D133" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D134" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="2:2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:4">
+      <c r="A135" t="s">
+        <v>298</v>
+      </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="D135" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="137" ht="70" customHeight="1" spans="1:4">
-      <c r="A137" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:4">
-      <c r="A138" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" t="s">
-        <v>5</v>
-      </c>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="2:2">
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" ht="70" customHeight="1" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" customHeight="1" spans="1:4">
       <c r="A139" t="s">
-        <v>294</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B140" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C140" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D140" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="4:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:4">
+      <c r="A141" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" t="s">
+        <v>309</v>
+      </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
-      <c r="D143" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="144" ht="70" customHeight="1" spans="1:4">
-      <c r="A144" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:4">
-      <c r="A145" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" t="s">
-        <v>5</v>
-      </c>
+      <c r="D143" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="4:4">
+      <c r="D144" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" ht="70" customHeight="1" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" customHeight="1" spans="1:4">
       <c r="A146" t="s">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>309</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="3:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:4">
+      <c r="A147" t="s">
+        <v>315</v>
+      </c>
+      <c r="B147" t="s">
+        <v>316</v>
+      </c>
       <c r="C147" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D147" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="148" ht="70" customHeight="1" spans="1:4">
-      <c r="A148" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:4">
-      <c r="A149" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" t="s">
-        <v>5</v>
-      </c>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="3:4">
+      <c r="C148" t="s">
+        <v>319</v>
+      </c>
+      <c r="D148" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" ht="70" customHeight="1" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" customHeight="1" spans="1:4">
       <c r="A150" t="s">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>315</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" ht="70" customHeight="1" spans="1:4">
-      <c r="A151" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:4">
-      <c r="A152" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:4">
+      <c r="A151" t="s">
+        <v>322</v>
+      </c>
+      <c r="B151" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" t="s">
+        <v>324</v>
+      </c>
+      <c r="D151" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" ht="70" customHeight="1" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" customHeight="1" spans="1:4">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="154" ht="70" customHeight="1" spans="1:4">
-      <c r="A154" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:4">
-      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:4">
+      <c r="A154" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" t="s">
+        <v>328</v>
+      </c>
+      <c r="D154" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" ht="70" customHeight="1" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:4">
+      <c r="A156" t="s">
         <v>2</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>3</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>4</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="2:4">
-      <c r="B156" t="s">
-        <v>323</v>
-      </c>
-      <c r="C156" t="s">
-        <v>324</v>
-      </c>
-      <c r="D156" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="157" ht="70" customHeight="1" spans="1:4">
-      <c r="A157" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:4">
-      <c r="A158" t="s">
+    <row r="157" customHeight="1" spans="2:4">
+      <c r="B157" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" t="s">
+        <v>332</v>
+      </c>
+      <c r="D157" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" ht="70" customHeight="1" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" customHeight="1" spans="1:4">
+      <c r="A159" t="s">
         <v>2</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>3</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>4</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="2:4">
-      <c r="B159" t="s">
-        <v>327</v>
-      </c>
-      <c r="C159" t="s">
-        <v>328</v>
-      </c>
-      <c r="D159" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="2:2">
+    <row r="160" customHeight="1" spans="2:4">
       <c r="B160" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="C160" t="s">
+        <v>336</v>
+      </c>
+      <c r="D160" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="2:2">
+      <c r="B161" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3644,19 +3704,19 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A158:D158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="353">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -52,34 +52,76 @@
     <t>迷宫饭</t>
   </si>
   <si>
+    <t>为美好的世界献上祝福! Ⅲ</t>
+  </si>
+  <si>
     <t>公主大人 “拷问”时间到了</t>
   </si>
   <si>
+    <t>怪物转生</t>
+  </si>
+  <si>
     <t>我心里危险的东西Ⅱ</t>
   </si>
   <si>
+    <t>关于我转生变成史莱姆这档事Ⅲ</t>
+  </si>
+  <si>
     <t>欢迎来到实力至上主义的教室Ⅲ</t>
   </si>
   <si>
+    <t>死神少爷与黑女仆Ⅲ</t>
+  </si>
+  <si>
     <t>弱势角色友崎君Ⅱ</t>
   </si>
   <si>
+    <t>老夫老妻重返青春</t>
+  </si>
+  <si>
     <t>愚蠢天使与恶魔共舞</t>
   </si>
   <si>
+    <t>无职转生II到了异世界就拿出真本事 后半</t>
+  </si>
+  <si>
     <t>北海道辣妹贼拉可爱</t>
   </si>
   <si>
+    <t>转生贵族靠着鉴定技能一飞冲天</t>
+  </si>
+  <si>
     <t>异修罗</t>
   </si>
   <si>
+    <t>末班列车去哪里了？</t>
+  </si>
+  <si>
     <t>梦想成为魔法少女</t>
   </si>
   <si>
+    <t>格斗实况</t>
+  </si>
+  <si>
     <t>佐佐木与文鸟小哔</t>
   </si>
   <si>
+    <t>怪人的沙拉碗、怪异与少女与神隐</t>
+  </si>
+  <si>
     <t>物理魔法使马修Ⅱ</t>
+  </si>
+  <si>
+    <t>调酒师 神之杯、战队大失格</t>
+  </si>
+  <si>
+    <t>我独自升级</t>
+  </si>
+  <si>
+    <t>Girls Band Cry</t>
+  </si>
+  <si>
+    <t>防风铃 wind breaker、杀手寓言</t>
   </si>
   <si>
     <t>2023年番剧推荐汇总</t>
@@ -2058,8 +2100,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2093,67 +2135,113 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D161)-(2024-2006+1)*5</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:2">
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2177,151 +2265,151 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2343,89 +2431,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2447,132 +2535,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2594,67 +2682,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2676,73 +2764,73 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" customFormat="1" customHeight="1" spans="4:4">
       <c r="D70" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" ht="70" customHeight="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2764,88 +2852,88 @@
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" ht="70" customHeight="1" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2867,70 +2955,70 @@
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:3">
       <c r="B85" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:3">
       <c r="C86" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" ht="70" customHeight="1" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2952,70 +3040,70 @@
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:2">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" ht="70" customHeight="1" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3037,100 +3125,100 @@
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
       <c r="A100" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:3">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:2">
       <c r="A103" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:2">
       <c r="B105" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" ht="70" customHeight="1" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3152,107 +3240,107 @@
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D108" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D109" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:4">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D113" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D114" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:4">
       <c r="B115" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D115" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="4:4">
       <c r="D118" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" ht="70" customHeight="1" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3274,86 +3362,86 @@
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D121" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C122" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D122" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D123" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D124" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D127" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:4">
       <c r="B128" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D128" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" ht="70" customHeight="1" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3375,78 +3463,78 @@
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B131" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D131" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C132" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D132" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D133" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D134" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D135" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:2">
       <c r="B137" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" ht="70" customHeight="1" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3468,50 +3556,50 @@
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C140" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D140" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
       <c r="A141" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D141" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
       <c r="D143" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="4:4">
       <c r="D144" s="5" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" ht="70" customHeight="1" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3533,29 +3621,29 @@
     </row>
     <row r="147" customHeight="1" spans="1:4">
       <c r="A147" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C147" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D147" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:4">
       <c r="C148" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D148" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" ht="70" customHeight="1" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3577,21 +3665,21 @@
     </row>
     <row r="151" customHeight="1" spans="1:4">
       <c r="A151" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B151" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C151" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" ht="70" customHeight="1" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3613,21 +3701,21 @@
     </row>
     <row r="154" customHeight="1" spans="1:4">
       <c r="A154" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B154" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D154" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" ht="70" customHeight="1" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3649,18 +3737,18 @@
     </row>
     <row r="157" customHeight="1" spans="2:4">
       <c r="B157" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D157" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" ht="70" customHeight="1" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3682,18 +3770,18 @@
     </row>
     <row r="160" customHeight="1" spans="2:4">
       <c r="B160" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D160" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:2">
       <c r="B161" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="352">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -73,49 +73,46 @@
     <t>死神少爷与黑女仆Ⅲ</t>
   </si>
   <si>
-    <t>弱势角色友崎君Ⅱ</t>
+    <t>愚蠢天使与恶魔共舞</t>
   </si>
   <si>
     <t>老夫老妻重返青春</t>
   </si>
   <si>
-    <t>愚蠢天使与恶魔共舞</t>
+    <t>北海道辣妹贼拉可爱</t>
   </si>
   <si>
     <t>无职转生II到了异世界就拿出真本事 后半</t>
   </si>
   <si>
-    <t>北海道辣妹贼拉可爱</t>
+    <t>异修罗</t>
   </si>
   <si>
     <t>转生贵族靠着鉴定技能一飞冲天</t>
   </si>
   <si>
-    <t>异修罗</t>
+    <t>梦想成为魔法少女</t>
   </si>
   <si>
     <t>末班列车去哪里了？</t>
   </si>
   <si>
-    <t>梦想成为魔法少女</t>
+    <t>佐佐木与文鸟小哔</t>
   </si>
   <si>
     <t>格斗实况</t>
   </si>
   <si>
-    <t>佐佐木与文鸟小哔</t>
+    <t>物理魔法使马修Ⅱ</t>
   </si>
   <si>
     <t>怪人的沙拉碗、怪异与少女与神隐</t>
   </si>
   <si>
-    <t>物理魔法使马修Ⅱ</t>
+    <t>我独自升级</t>
   </si>
   <si>
     <t>调酒师 神之杯、战队大失格</t>
-  </si>
-  <si>
-    <t>我独自升级</t>
   </si>
   <si>
     <t>Girls Band Cry</t>
@@ -2100,8 +2097,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2135,7 +2132,7 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D161)-(2024-2006+1)*5</f>
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -2226,22 +2223,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14" customHeight="1" spans="2:2">
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2265,151 +2259,151 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2431,89 +2425,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
         <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
         <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2535,132 +2529,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
         <v>94</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>95</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>96</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
         <v>114</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>115</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>116</v>
-      </c>
-      <c r="D50" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
         <v>118</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
         <v>119</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
         <v>121</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
         <v>124</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>125</v>
-      </c>
-      <c r="C53" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2682,67 +2676,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
         <v>129</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
         <v>133</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>134</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>135</v>
-      </c>
-      <c r="D58" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
         <v>137</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>138</v>
-      </c>
-      <c r="C59" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s">
         <v>140</v>
-      </c>
-      <c r="B60" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
         <v>142</v>
-      </c>
-      <c r="B61" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2764,73 +2758,73 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
         <v>146</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>147</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>148</v>
-      </c>
-      <c r="D65" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" t="s">
         <v>150</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>151</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
         <v>154</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>155</v>
-      </c>
-      <c r="D67" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
         <v>157</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>158</v>
-      </c>
-      <c r="D68" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
         <v>160</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>161</v>
-      </c>
-      <c r="D69" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="70" customFormat="1" customHeight="1" spans="4:4">
       <c r="D70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" ht="70" customHeight="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2852,88 +2846,88 @@
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
         <v>166</v>
-      </c>
-      <c r="C73" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
         <v>168</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>169</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>170</v>
-      </c>
-      <c r="D74" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
         <v>172</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>173</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>174</v>
-      </c>
-      <c r="D75" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
         <v>176</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>177</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>178</v>
-      </c>
-      <c r="D76" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" t="s">
         <v>180</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>181</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>182</v>
-      </c>
-      <c r="D77" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>185</v>
-      </c>
-      <c r="D78" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="79" ht="70" customHeight="1" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2955,70 +2949,70 @@
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" t="s">
         <v>188</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>189</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
         <v>192</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>193</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>194</v>
-      </c>
-      <c r="D82" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" t="s">
         <v>196</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>197</v>
-      </c>
-      <c r="D83" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
         <v>199</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>200</v>
-      </c>
-      <c r="D84" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:3">
       <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" t="s">
         <v>202</v>
-      </c>
-      <c r="C85" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:3">
       <c r="C86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" ht="70" customHeight="1" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3040,70 +3034,70 @@
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" t="s">
         <v>206</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>207</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>208</v>
-      </c>
-      <c r="D89" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
         <v>210</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>211</v>
-      </c>
-      <c r="C90" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" t="s">
         <v>213</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" t="s">
         <v>216</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>217</v>
-      </c>
-      <c r="C92" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" t="s">
         <v>219</v>
-      </c>
-      <c r="B93" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:2">
       <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" t="s">
         <v>221</v>
-      </c>
-      <c r="B94" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" ht="70" customHeight="1" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3125,100 +3119,100 @@
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" t="s">
         <v>224</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>225</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>226</v>
-      </c>
-      <c r="D97" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" t="s">
         <v>228</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>229</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>230</v>
-      </c>
-      <c r="D98" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s">
         <v>232</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>233</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>234</v>
-      </c>
-      <c r="D99" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
       <c r="A100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" t="s">
         <v>236</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>237</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>238</v>
-      </c>
-      <c r="D100" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:3">
       <c r="A101" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s">
         <v>240</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>241</v>
-      </c>
-      <c r="C101" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" t="s">
         <v>243</v>
-      </c>
-      <c r="B102" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:2">
       <c r="A103" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" t="s">
         <v>245</v>
-      </c>
-      <c r="B103" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:2">
       <c r="B105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" ht="70" customHeight="1" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3240,107 +3234,107 @@
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" t="s">
         <v>250</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>251</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>252</v>
-      </c>
-      <c r="D108" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
+        <v>253</v>
+      </c>
+      <c r="B109" t="s">
         <v>254</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>255</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>256</v>
-      </c>
-      <c r="D109" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:4">
       <c r="A110" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
         <v>258</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>259</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>260</v>
-      </c>
-      <c r="D110" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" t="s">
         <v>262</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>263</v>
-      </c>
-      <c r="D111" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" t="s">
         <v>265</v>
-      </c>
-      <c r="D112" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" t="s">
         <v>267</v>
-      </c>
-      <c r="D113" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114" t="s">
         <v>269</v>
-      </c>
-      <c r="D114" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:4">
       <c r="B115" t="s">
+        <v>270</v>
+      </c>
+      <c r="D115" t="s">
         <v>271</v>
-      </c>
-      <c r="D115" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="4:4">
       <c r="D118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" ht="70" customHeight="1" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3362,86 +3356,86 @@
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" t="s">
         <v>277</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>278</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>279</v>
-      </c>
-      <c r="D121" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B122" t="s">
         <v>281</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>282</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>283</v>
-      </c>
-      <c r="D122" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
       <c r="A123" t="s">
+        <v>284</v>
+      </c>
+      <c r="B123" t="s">
         <v>285</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>286</v>
-      </c>
-      <c r="D123" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
+        <v>287</v>
+      </c>
+      <c r="D124" t="s">
         <v>288</v>
-      </c>
-      <c r="D124" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
+        <v>289</v>
+      </c>
+      <c r="D125" t="s">
         <v>290</v>
-      </c>
-      <c r="D125" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
+        <v>291</v>
+      </c>
+      <c r="D126" t="s">
         <v>292</v>
-      </c>
-      <c r="D126" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" t="s">
         <v>294</v>
-      </c>
-      <c r="D127" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:4">
       <c r="B128" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" t="s">
         <v>296</v>
-      </c>
-      <c r="D128" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="129" ht="70" customHeight="1" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3463,78 +3457,78 @@
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" t="s">
         <v>299</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>300</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>301</v>
-      </c>
-      <c r="D131" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" t="s">
         <v>303</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>304</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>305</v>
-      </c>
-      <c r="D132" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133" t="s">
+        <v>290</v>
+      </c>
+      <c r="D133" t="s">
         <v>307</v>
-      </c>
-      <c r="B133" t="s">
-        <v>291</v>
-      </c>
-      <c r="D133" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" t="s">
         <v>309</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>310</v>
-      </c>
-      <c r="D134" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" t="s">
+        <v>311</v>
+      </c>
+      <c r="B135" t="s">
         <v>312</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>313</v>
-      </c>
-      <c r="D135" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:2">
       <c r="B137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" ht="70" customHeight="1" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3556,50 +3550,50 @@
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" t="s">
         <v>318</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>319</v>
-      </c>
-      <c r="D140" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
       <c r="A141" t="s">
+        <v>320</v>
+      </c>
+      <c r="B141" t="s">
         <v>321</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>322</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>323</v>
-      </c>
-      <c r="D141" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
       <c r="D143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="4:4">
       <c r="D144" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" ht="70" customHeight="1" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3621,29 +3615,29 @@
     </row>
     <row r="147" customHeight="1" spans="1:4">
       <c r="A147" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" t="s">
         <v>329</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>330</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>331</v>
-      </c>
-      <c r="D147" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:4">
       <c r="C148" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" t="s">
         <v>333</v>
-      </c>
-      <c r="D148" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="149" ht="70" customHeight="1" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3665,21 +3659,21 @@
     </row>
     <row r="151" customHeight="1" spans="1:4">
       <c r="A151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s">
         <v>336</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>337</v>
       </c>
-      <c r="C151" t="s">
-        <v>338</v>
-      </c>
       <c r="D151" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" ht="70" customHeight="1" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3701,21 +3695,21 @@
     </row>
     <row r="154" customHeight="1" spans="1:4">
       <c r="A154" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" t="s">
         <v>340</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>341</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>342</v>
-      </c>
-      <c r="D154" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="155" ht="70" customHeight="1" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3737,18 +3731,18 @@
     </row>
     <row r="157" customHeight="1" spans="2:4">
       <c r="B157" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" t="s">
         <v>345</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>346</v>
-      </c>
-      <c r="D157" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="158" ht="70" customHeight="1" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3770,18 +3764,18 @@
     </row>
     <row r="160" customHeight="1" spans="2:4">
       <c r="B160" t="s">
+        <v>348</v>
+      </c>
+      <c r="C160" t="s">
         <v>349</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>350</v>
-      </c>
-      <c r="D160" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:2">
       <c r="B161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,19 +106,19 @@
     <t>物理魔法使马修Ⅱ</t>
   </si>
   <si>
-    <t>怪人的沙拉碗、怪异与少女与神隐</t>
+    <t>怪人的沙拉碗</t>
   </si>
   <si>
     <t>我独自升级</t>
   </si>
   <si>
-    <t>调酒师 神之杯、战队大失格</t>
-  </si>
-  <si>
-    <t>Girls Band Cry</t>
-  </si>
-  <si>
-    <t>防风铃 wind breaker、杀手寓言</t>
+    <t>调酒师 神之杯</t>
+  </si>
+  <si>
+    <t>杀手寓言</t>
+  </si>
+  <si>
+    <t>防风铃 wind breaker</t>
   </si>
   <si>
     <t>2023年番剧推荐汇总</t>
@@ -2097,8 +2097,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -94,7 +94,7 @@
     <t>梦想成为魔法少女</t>
   </si>
   <si>
-    <t>末班列车去哪里了？</t>
+    <t>喂！蜻蜓</t>
   </si>
   <si>
     <t>佐佐木与文鸟小哔</t>
@@ -2097,8 +2097,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:D138"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="19200" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="357">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -55,10 +55,16 @@
     <t>为美好的世界献上祝福! Ⅲ</t>
   </si>
   <si>
+    <t>异世界自杀小队</t>
+  </si>
+  <si>
     <t>公主大人 “拷问”时间到了</t>
   </si>
   <si>
-    <t>怪物转生</t>
+    <t>哭泣少女乐队</t>
+  </si>
+  <si>
+    <t>我的妻子没有感情</t>
   </si>
   <si>
     <t>我心里危险的东西Ⅱ</t>
@@ -67,16 +73,25 @@
     <t>关于我转生变成史莱姆这档事Ⅲ</t>
   </si>
   <si>
+    <t>疑似后宫</t>
+  </si>
+  <si>
     <t>欢迎来到实力至上主义的教室Ⅲ</t>
   </si>
   <si>
     <t>死神少爷与黑女仆Ⅲ</t>
   </si>
   <si>
+    <t>前辈是男孩子</t>
+  </si>
+  <si>
     <t>愚蠢天使与恶魔共舞</t>
   </si>
   <si>
     <t>老夫老妻重返青春</t>
+  </si>
+  <si>
+    <t>擅长逃跑的殿下</t>
   </si>
   <si>
     <t>北海道辣妹贼拉可爱</t>
@@ -2097,8 +2112,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B132" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2132,110 +2147,125 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D161)-(2024-2006+1)*5</f>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2259,151 +2289,151 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2425,89 +2455,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2529,132 +2559,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
         <v>118</v>
       </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2676,67 +2706,67 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:2">
       <c r="B62" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2758,73 +2788,73 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" customFormat="1" customHeight="1" spans="4:4">
       <c r="D70" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" ht="70" customHeight="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2846,88 +2876,88 @@
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" ht="70" customHeight="1" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2949,70 +2979,70 @@
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:3">
       <c r="B85" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:3">
       <c r="C86" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" ht="70" customHeight="1" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3034,70 +3064,70 @@
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:2">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" ht="70" customHeight="1" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3119,100 +3149,100 @@
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:3">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:2">
       <c r="A103" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:2">
       <c r="B105" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" ht="70" customHeight="1" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3234,107 +3264,107 @@
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:4">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D112" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D114" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:4">
       <c r="B115" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="4:4">
       <c r="D118" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" ht="70" customHeight="1" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3356,86 +3386,86 @@
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D121" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D123" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D125" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D126" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D127" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:4">
       <c r="B128" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" ht="70" customHeight="1" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3457,78 +3487,78 @@
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C131" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C132" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D132" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D133" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B134" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D135" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:2">
       <c r="B137" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138" ht="70" customHeight="1" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3550,50 +3580,50 @@
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B140" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D140" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
       <c r="A141" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D141" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
       <c r="D143" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="4:4">
       <c r="D144" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" ht="70" customHeight="1" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3615,29 +3645,29 @@
     </row>
     <row r="147" customHeight="1" spans="1:4">
       <c r="A147" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C147" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D147" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:4">
       <c r="C148" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" ht="70" customHeight="1" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3659,21 +3689,21 @@
     </row>
     <row r="151" customHeight="1" spans="1:4">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C151" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D151" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" ht="70" customHeight="1" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3695,21 +3725,21 @@
     </row>
     <row r="154" customHeight="1" spans="1:4">
       <c r="A154" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B154" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C154" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D154" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" ht="70" customHeight="1" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3731,18 +3761,18 @@
     </row>
     <row r="157" customHeight="1" spans="2:4">
       <c r="B157" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C157" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D157" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" ht="70" customHeight="1" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3764,18 +3794,18 @@
     </row>
     <row r="160" customHeight="1" spans="2:4">
       <c r="B160" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C160" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:2">
       <c r="B161" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="369">
   <si>
     <t>2024年番剧推荐汇总</t>
   </si>
@@ -58,6 +58,9 @@
     <t>异世界自杀小队</t>
   </si>
   <si>
+    <t>超自然武装当哒当 (胆大党)</t>
+  </si>
+  <si>
     <t>公主大人 “拷问”时间到了</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>我的妻子没有感情</t>
   </si>
   <si>
+    <t>Gun Gale Online Ⅱ</t>
+  </si>
+  <si>
     <t>我心里危险的东西Ⅱ</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>疑似后宫</t>
   </si>
   <si>
+    <t>蓝色监狱 Ⅱ</t>
+  </si>
+  <si>
     <t>欢迎来到实力至上主义的教室Ⅲ</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>前辈是男孩子</t>
   </si>
   <si>
+    <t>地。关于地球的运动</t>
+  </si>
+  <si>
     <t>愚蠢天使与恶魔共舞</t>
   </si>
   <si>
@@ -94,36 +106,57 @@
     <t>擅长逃跑的殿下</t>
   </si>
   <si>
+    <t>喂！蜻蜓 Ⅱ</t>
+  </si>
+  <si>
     <t>北海道辣妹贼拉可爱</t>
   </si>
   <si>
     <t>无职转生II到了异世界就拿出真本事 后半</t>
   </si>
   <si>
+    <t>异世界失格</t>
+  </si>
+  <si>
+    <t>妻子变成小学生</t>
+  </si>
+  <si>
     <t>异修罗</t>
   </si>
   <si>
     <t>转生贵族靠着鉴定技能一飞冲天</t>
   </si>
   <si>
+    <t>前辈是伪娘</t>
+  </si>
+  <si>
     <t>梦想成为魔法少女</t>
   </si>
   <si>
     <t>喂！蜻蜓</t>
   </si>
   <si>
+    <t>靠废柴技能状态异常成为最强的我将蹂躏一切</t>
+  </si>
+  <si>
     <t>佐佐木与文鸟小哔</t>
   </si>
   <si>
     <t>格斗实况</t>
   </si>
   <si>
+    <t>小市民系列</t>
+  </si>
+  <si>
     <t>物理魔法使马修Ⅱ</t>
   </si>
   <si>
     <t>怪人的沙拉碗</t>
   </si>
   <si>
+    <t>败犬女主太多啦</t>
+  </si>
+  <si>
     <t>我独自升级</t>
   </si>
   <si>
@@ -473,6 +506,9 @@
   </si>
   <si>
     <t>神之塔</t>
+  </si>
+  <si>
+    <t>别对映像研出手！</t>
   </si>
   <si>
     <t>八男？别闹了</t>
@@ -1743,7 +1779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,6 +1794,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2112,8 +2151,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B132" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -2147,10 +2186,10 @@
       </c>
       <c r="E2" s="4">
         <f>COUNTA(A1:D161)-(2024-2006+1)*5</f>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2160,112 +2199,145 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2289,151 +2361,151 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="B28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="70" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2455,89 +2527,89 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" ht="70" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2559,132 +2631,132 @@
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" ht="70" customHeight="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2706,67 +2778,70 @@
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" ht="70" customHeight="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2788,73 +2863,73 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" customFormat="1" customHeight="1" spans="4:4">
       <c r="D70" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" ht="70" customHeight="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2876,88 +2951,88 @@
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" t="s">
         <v>170</v>
       </c>
-      <c r="C73" t="s">
-        <v>158</v>
-      </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" ht="70" customHeight="1" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2979,70 +3054,70 @@
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:3">
       <c r="B85" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:3">
       <c r="C86" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" ht="70" customHeight="1" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3064,70 +3139,70 @@
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D89" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:2">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" ht="70" customHeight="1" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3149,100 +3224,100 @@
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:3">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:2">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:2">
       <c r="B104" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:2">
       <c r="B105" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" ht="70" customHeight="1" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3264,107 +3339,107 @@
     </row>
     <row r="108" customHeight="1" spans="1:4">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:4">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D110" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D111" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:4">
       <c r="B113" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D113" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
       <c r="B114" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D114" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:4">
       <c r="B115" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="4:4">
       <c r="D116" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="4:4">
       <c r="D117" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="4:4">
       <c r="D118" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" ht="70" customHeight="1" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3386,86 +3461,86 @@
     </row>
     <row r="121" customHeight="1" spans="1:4">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B121" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D121" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
       <c r="A122" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:4">
       <c r="B124" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D124" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:4">
       <c r="B125" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D125" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:4">
       <c r="B126" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:4">
       <c r="B127" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D127" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:4">
       <c r="B128" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" ht="70" customHeight="1" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3487,78 +3562,78 @@
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B131" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D131" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B132" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C132" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D132" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B133" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D133" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D134" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D135" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:2">
       <c r="B137" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" ht="70" customHeight="1" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3580,50 +3655,50 @@
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
       <c r="A141" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B141" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C141" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="D141" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="4:4">
       <c r="D142" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="4:4">
       <c r="D143" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="4:4">
-      <c r="D144" s="5" t="s">
-        <v>331</v>
+      <c r="D144" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="145" ht="70" customHeight="1" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3645,29 +3720,29 @@
     </row>
     <row r="147" customHeight="1" spans="1:4">
       <c r="A147" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:4">
       <c r="C148" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D148" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" ht="70" customHeight="1" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3689,21 +3764,21 @@
     </row>
     <row r="151" customHeight="1" spans="1:4">
       <c r="A151" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B151" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C151" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D151" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" ht="70" customHeight="1" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3725,21 +3800,21 @@
     </row>
     <row r="154" customHeight="1" spans="1:4">
       <c r="A154" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B154" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C154" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="155" ht="70" customHeight="1" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3761,18 +3836,18 @@
     </row>
     <row r="157" customHeight="1" spans="2:4">
       <c r="B157" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C157" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D157" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="158" ht="70" customHeight="1" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3794,18 +3869,18 @@
     </row>
     <row r="160" customHeight="1" spans="2:4">
       <c r="B160" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D160" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:2">
       <c r="B161" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/季度番剧汇总.xlsx
+++ b/季度番剧汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="19200" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2151,8 +2151,8 @@
   <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -3917,7 +3917,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3934,7 +3934,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
